--- a/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_RawData.xlsx
+++ b/2021/LFM_WP_Fall2021/PWD_Oct2021_LFM_WP_RawData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinakozanitas/GitHub/PepperwoodVegPlots/2021/LFM_WP_Fall2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F99F48-D1DF-FF4A-B635-01AFD5FE706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE409E12-65B3-8845-8B19-468398A0CFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34880" yWindow="860" windowWidth="28960" windowHeight="20780" activeTab="1" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
+    <workbookView xWindow="7540" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{05CBDBC3-C58E-254F-9CCB-F423A62E9A36}"/>
   </bookViews>
   <sheets>
     <sheet name="WP" sheetId="2" r:id="rId1"/>
@@ -753,9 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB63F9D-A779-474A-9790-68A1B1C3510F}">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A47:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,62 +809,59 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2">
-        <v>57.6</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>10704</v>
+        <v>10715</v>
       </c>
       <c r="G2">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H2" t="s">
         <v>82</v>
       </c>
       <c r="I2">
-        <v>4.55</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J2">
-        <v>4.95</v>
+        <v>4.2</v>
       </c>
       <c r="K2">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>10713</v>
+        <v>10715</v>
       </c>
       <c r="G3">
         <v>20211009</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J3">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -873,18 +870,18 @@
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4">
-        <v>10714</v>
+        <v>10717</v>
       </c>
       <c r="G4">
         <v>20211009</v>
@@ -893,10 +890,10 @@
         <v>82</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J4">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -905,7 +902,7 @@
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -916,22 +913,22 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5">
-        <v>10715</v>
+        <v>10717</v>
       </c>
       <c r="G5">
         <v>20211009</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>4.6500000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="J5">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="K5">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -939,16 +936,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>10716</v>
+        <v>10720</v>
       </c>
       <c r="G6">
         <v>20211009</v>
@@ -957,18 +954,15 @@
         <v>82</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="J6">
-        <v>3.35</v>
-      </c>
-      <c r="K6">
-        <v>4.55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -977,33 +971,33 @@
         <v>43</v>
       </c>
       <c r="F7">
-        <v>10717</v>
+        <v>10720</v>
       </c>
       <c r="G7">
         <v>20211009</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="J7">
-        <v>3.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>10718</v>
+        <v>10721</v>
       </c>
       <c r="G8">
         <v>20211009</v>
@@ -1012,105 +1006,111 @@
         <v>82</v>
       </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="J8">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>10719</v>
+        <v>10721</v>
       </c>
       <c r="G9">
         <v>20211009</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J9">
         <v>2.35</v>
       </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1.6</v>
+      </c>
+      <c r="M9">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
       </c>
       <c r="F10">
-        <v>10720</v>
+        <v>10729</v>
       </c>
       <c r="G10">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10">
-        <v>2.95</v>
+        <v>5.3</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
       <c r="F11">
-        <v>10721</v>
+        <v>10729</v>
       </c>
       <c r="G11">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12">
-        <v>42.4</v>
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>10722</v>
+        <v>10730</v>
       </c>
       <c r="G12">
         <v>20211010</v>
@@ -1119,321 +1119,365 @@
         <v>82</v>
       </c>
       <c r="I12">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="J12">
-        <v>3.55</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F13">
-        <v>10723</v>
+        <v>10730</v>
       </c>
       <c r="G13">
         <v>20211010</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" t="s">
-        <v>87</v>
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>2.4</v>
+      </c>
+      <c r="J13">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>10724</v>
+        <v>10993</v>
       </c>
       <c r="G14">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14">
-        <v>4.3499999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="J14">
-        <v>4.0999999999999996</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>10725</v>
+        <v>10993</v>
       </c>
       <c r="G15">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I15">
-        <v>6.65</v>
+        <v>3.3</v>
       </c>
       <c r="J15">
-        <v>5.85</v>
+        <v>3.5</v>
       </c>
       <c r="K15">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>10726</v>
+        <v>10996</v>
       </c>
       <c r="G16">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
-      <c r="I16" t="s">
-        <v>90</v>
+      <c r="I16">
+        <v>3.35</v>
+      </c>
+      <c r="J16">
+        <v>3.55</v>
+      </c>
+      <c r="K16">
+        <v>3.45</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>10727</v>
+        <v>10996</v>
       </c>
       <c r="G17">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>2.65</v>
+      </c>
+      <c r="J17">
+        <v>2.5</v>
+      </c>
+      <c r="K17">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>10728</v>
+        <v>10974</v>
       </c>
       <c r="G18">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
-      <c r="I18" t="s">
-        <v>90</v>
+      <c r="I18">
+        <v>1.75</v>
+      </c>
+      <c r="J18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K18">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>10729</v>
+        <v>10974</v>
       </c>
       <c r="G19">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I19">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="J19">
-        <v>5.55</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K19">
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>58.1</v>
       </c>
       <c r="F20">
-        <v>10730</v>
+        <v>10975</v>
       </c>
       <c r="G20">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20">
-        <v>4.8</v>
+        <v>2.85</v>
       </c>
       <c r="J20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K20" t="s">
-        <v>88</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>58.1</v>
       </c>
       <c r="F21">
-        <v>10731</v>
+        <v>10975</v>
       </c>
       <c r="G21">
         <v>20211010</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I21">
-        <v>3.35</v>
+        <v>1.65</v>
       </c>
       <c r="J21">
-        <v>3.2</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>53.9</v>
       </c>
       <c r="F22">
-        <v>10732</v>
+        <v>10976</v>
       </c>
       <c r="G22">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22">
-        <v>4.45</v>
+        <v>3.05</v>
       </c>
       <c r="J22">
-        <v>4.1500000000000004</v>
+        <v>2.7</v>
+      </c>
+      <c r="K22">
+        <v>2.75</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>53.9</v>
       </c>
       <c r="F23">
-        <v>10733</v>
+        <v>10976</v>
       </c>
       <c r="G23">
         <v>20211010</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>6.1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>89</v>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J23">
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24"/>
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>63</v>
+      </c>
       <c r="E24"/>
       <c r="F24">
-        <v>10734</v>
+        <v>10977</v>
       </c>
       <c r="G24">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="J24">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
@@ -1442,117 +1486,116 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>63</v>
       </c>
       <c r="F25">
-        <v>10735</v>
+        <v>10977</v>
       </c>
       <c r="G25">
         <v>20211010</v>
       </c>
       <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>0.64</v>
+      </c>
+      <c r="J25">
+        <v>0.76</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+      <c r="L25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <v>17</v>
+      </c>
+      <c r="F26" s="10">
+        <v>10985</v>
+      </c>
+      <c r="G26" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I25">
-        <v>3.15</v>
-      </c>
-      <c r="J25">
-        <v>3.85</v>
-      </c>
-      <c r="K25">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>99</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26">
-        <v>10736</v>
-      </c>
-      <c r="G26">
-        <v>20211010</v>
-      </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26">
-        <v>3.45</v>
-      </c>
-      <c r="J26">
-        <v>3.4</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="I26" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K26" s="10">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>121</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27">
-        <v>89.8</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27">
-        <v>10800</v>
-      </c>
-      <c r="G27">
+      <c r="A27" s="10">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="10">
+        <v>17</v>
+      </c>
+      <c r="F27" s="10">
+        <v>10985</v>
+      </c>
+      <c r="G27" s="10">
         <v>20211009</v>
       </c>
-      <c r="H27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27">
-        <v>3.35</v>
-      </c>
-      <c r="J27">
-        <v>3.5</v>
-      </c>
-      <c r="K27">
-        <v>3.45</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="H27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28">
-        <v>50.9</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="10">
+        <v>30.1</v>
       </c>
       <c r="E28"/>
       <c r="F28">
-        <v>10801</v>
+        <v>10986</v>
       </c>
       <c r="G28">
         <v>20211009</v>
@@ -1561,10 +1604,10 @@
         <v>82</v>
       </c>
       <c r="I28">
-        <v>4.5999999999999996</v>
+        <v>5.65</v>
       </c>
       <c r="J28">
-        <v>4.3499999999999996</v>
+        <v>5.45</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -1572,69 +1615,65 @@
       <c r="N28"/>
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="10">
+        <v>59</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29">
-        <v>83.4</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29">
-        <v>10803</v>
-      </c>
-      <c r="G29">
+      <c r="C29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="10">
+        <v>30.1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>10986</v>
+      </c>
+      <c r="G29" s="10">
         <v>20211009</v>
       </c>
-      <c r="H29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29">
-        <v>4.7</v>
-      </c>
-      <c r="J29">
-        <v>4.3</v>
-      </c>
-      <c r="K29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
+      <c r="H29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="10">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J29" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30">
-        <v>10805</v>
+        <v>44</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
       </c>
       <c r="G30">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I30">
-        <v>3.1</v>
+        <v>1.35</v>
       </c>
       <c r="J30">
-        <v>2.95</v>
+        <v>1.4</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
@@ -1643,496 +1682,461 @@
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31">
-        <v>35.9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D31"/>
       <c r="E31"/>
-      <c r="F31">
-        <v>10806</v>
+      <c r="F31" t="s">
+        <v>86</v>
       </c>
       <c r="G31">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
       </c>
       <c r="I31">
-        <v>4.45</v>
+        <v>3.85</v>
       </c>
       <c r="J31">
-        <v>4.5</v>
-      </c>
-      <c r="K31"/>
-      <c r="L31"/>
+        <v>1.85</v>
+      </c>
+      <c r="K31">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L31">
+        <v>2.9</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
     </row>
     <row r="32" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32">
-        <v>10864</v>
+        <v>44</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
       </c>
       <c r="G32">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32">
-        <v>5.2</v>
+        <v>40</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J32">
-        <v>5.2</v>
-      </c>
-      <c r="K32"/>
+        <v>1.8</v>
+      </c>
+      <c r="K32">
+        <v>1.8</v>
+      </c>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>94.3</v>
-      </c>
-      <c r="F33">
-        <v>10865</v>
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
       </c>
       <c r="G33">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H33" t="s">
         <v>82</v>
       </c>
       <c r="I33">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="J33">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="K33">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34">
-        <v>68.7</v>
-      </c>
-      <c r="F34">
-        <v>10894</v>
-      </c>
-      <c r="G34">
-        <v>20211009</v>
-      </c>
-      <c r="H34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34">
-        <v>3.3</v>
-      </c>
-      <c r="J34">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.4</v>
+      </c>
+      <c r="L33">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>12</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="8">
+        <v>20211010</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35">
-        <v>72.5</v>
+        <v>34</v>
       </c>
       <c r="F35">
-        <v>10896</v>
+        <v>10723</v>
       </c>
       <c r="G35">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H35" t="s">
         <v>82</v>
       </c>
-      <c r="I35">
-        <v>5.3</v>
-      </c>
-      <c r="J35">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K35">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36">
-        <v>58.6</v>
+        <v>34</v>
       </c>
       <c r="F36">
-        <v>10898</v>
+        <v>10723</v>
       </c>
       <c r="G36">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36">
-        <v>4.55</v>
-      </c>
-      <c r="J36">
-        <v>3.65</v>
-      </c>
-      <c r="K36">
-        <v>3.25</v>
-      </c>
-      <c r="L36">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37">
-        <v>80.2</v>
+        <v>34</v>
       </c>
       <c r="F37">
-        <v>10899</v>
+        <v>10725</v>
       </c>
       <c r="G37">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H37" t="s">
         <v>82</v>
       </c>
       <c r="I37">
-        <v>4.45</v>
+        <v>6.65</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>5.85</v>
       </c>
       <c r="K37">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38">
-        <v>8.6</v>
+        <v>34</v>
       </c>
       <c r="F38">
-        <v>10956</v>
+        <v>10725</v>
       </c>
       <c r="G38">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I38">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="J38">
-        <v>2.85</v>
-      </c>
-      <c r="K38">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39">
-        <v>66.8</v>
+        <v>34</v>
       </c>
       <c r="F39">
-        <v>10959</v>
+        <v>10726</v>
+      </c>
+      <c r="G39">
+        <v>20211010</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3.65</v>
       </c>
       <c r="J39">
-        <v>1.45</v>
-      </c>
-      <c r="K39">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40">
-        <v>42.9</v>
+        <v>34</v>
       </c>
       <c r="F40">
-        <v>10960</v>
+        <v>10726</v>
+      </c>
+      <c r="G40">
+        <v>20211010</v>
       </c>
       <c r="H40" t="s">
         <v>82</v>
       </c>
-      <c r="I40">
-        <v>1.65</v>
-      </c>
-      <c r="J40">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41">
-        <v>46.5</v>
+        <v>34</v>
       </c>
       <c r="F41">
-        <v>10961</v>
+        <v>10727</v>
+      </c>
+      <c r="G41">
+        <v>20211010</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I41">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="J41">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42">
-        <v>35.9</v>
+        <v>34</v>
       </c>
       <c r="F42">
-        <v>10962</v>
+        <v>10727</v>
+      </c>
+      <c r="G42">
+        <v>20211010</v>
       </c>
       <c r="H42" t="s">
         <v>82</v>
       </c>
-      <c r="I42">
-        <v>2.6</v>
-      </c>
-      <c r="J42">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43">
-        <v>53.4</v>
+        <v>34</v>
       </c>
       <c r="F43">
-        <v>10963</v>
+        <v>10728</v>
+      </c>
+      <c r="G43">
+        <v>20211010</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I43">
-        <v>2.0499999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="J43">
-        <v>2.75</v>
-      </c>
-      <c r="K43">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44">
-        <v>52.2</v>
+        <v>34</v>
       </c>
       <c r="F44">
-        <v>10964</v>
+        <v>10728</v>
+      </c>
+      <c r="G44">
+        <v>20211010</v>
       </c>
       <c r="H44" t="s">
         <v>82</v>
       </c>
-      <c r="I44">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J44">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45">
-        <v>72.5</v>
+        <v>34</v>
       </c>
       <c r="F45">
-        <v>10965</v>
+        <v>10733</v>
+      </c>
+      <c r="G45">
+        <v>20211010</v>
       </c>
       <c r="H45" t="s">
         <v>82</v>
       </c>
       <c r="I45">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J45">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46">
-        <v>62.2</v>
+        <v>34</v>
       </c>
       <c r="F46">
-        <v>10966</v>
+        <v>10733</v>
       </c>
       <c r="G46">
         <v>20211010</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I46">
-        <v>4.7</v>
+        <v>5.45</v>
       </c>
       <c r="J46">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.55</v>
+      </c>
+      <c r="K46">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47">
-        <v>84.3</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>10967</v>
+        <v>10724</v>
       </c>
       <c r="G47">
         <v>20211010</v>
@@ -2141,62 +2145,50 @@
         <v>82</v>
       </c>
       <c r="I47">
-        <v>6.6</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J47">
-        <v>5.85</v>
-      </c>
-      <c r="K47">
-        <v>5.4</v>
-      </c>
-      <c r="L47">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48">
-        <v>72.2</v>
+        <v>41</v>
       </c>
       <c r="F48">
-        <v>10968</v>
+        <v>10724</v>
       </c>
       <c r="G48">
         <v>20211010</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I48">
-        <v>4.8499999999999996</v>
+        <v>2.95</v>
       </c>
       <c r="J48">
-        <v>4.55</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49">
-        <v>79.900000000000006</v>
+        <v>41</v>
       </c>
       <c r="F49">
-        <v>10969</v>
+        <v>10731</v>
       </c>
       <c r="G49">
         <v>20211010</v>
@@ -2205,59 +2197,59 @@
         <v>82</v>
       </c>
       <c r="I49">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J49">
-        <v>3.75</v>
-      </c>
-      <c r="K49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50">
-        <v>37.5</v>
+        <v>41</v>
       </c>
       <c r="F50">
-        <v>10970</v>
+        <v>10731</v>
       </c>
       <c r="G50">
         <v>20211010</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I50">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="J50">
-        <v>5.55</v>
+        <v>2.5</v>
+      </c>
+      <c r="K50">
+        <v>2.75</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51">
-        <v>46.5</v>
+        <v>41</v>
       </c>
       <c r="F51">
-        <v>10971</v>
+        <v>10732</v>
       </c>
       <c r="G51">
         <v>20211010</v>
@@ -2266,236 +2258,209 @@
         <v>82</v>
       </c>
       <c r="I51">
-        <v>5.45</v>
+        <v>4.45</v>
       </c>
       <c r="J51">
-        <v>5.95</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52">
-        <v>31.3</v>
+        <v>41</v>
       </c>
       <c r="F52">
-        <v>10972</v>
+        <v>10732</v>
       </c>
       <c r="G52">
         <v>20211010</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I52">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="J52">
-        <v>2.2000000000000002</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53">
-        <v>68.5</v>
+        <v>41</v>
       </c>
       <c r="F53">
-        <v>10973</v>
+        <v>10734</v>
       </c>
       <c r="G53">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H53" t="s">
         <v>82</v>
       </c>
       <c r="I53">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="J53">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F54">
-        <v>10974</v>
+        <v>10734</v>
       </c>
       <c r="G54">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I54">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="J54">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K54">
-        <v>2.2000000000000002</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>58.1</v>
+        <v>41</v>
       </c>
       <c r="F55">
-        <v>10975</v>
+        <v>10735</v>
       </c>
       <c r="G55">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H55" t="s">
         <v>82</v>
       </c>
       <c r="I55">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="J55">
-        <v>2.9</v>
+        <v>3.85</v>
+      </c>
+      <c r="K55">
+        <v>3.7</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>53.9</v>
+        <v>41</v>
       </c>
       <c r="F56">
-        <v>10976</v>
+        <v>10735</v>
       </c>
       <c r="G56">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I56">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="J56">
-        <v>2.7</v>
-      </c>
-      <c r="K56">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F57">
-        <v>10977</v>
+        <v>10736</v>
       </c>
       <c r="G57">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H57" t="s">
         <v>82</v>
       </c>
       <c r="I57">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="J57">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58">
-        <v>63.2</v>
+        <v>41</v>
       </c>
       <c r="F58">
-        <v>10978</v>
+        <v>10736</v>
       </c>
       <c r="G58">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I58">
-        <v>2.2999999999999998</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J58">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59">
-        <v>23.7</v>
+        <v>77</v>
       </c>
       <c r="F59">
-        <v>10979</v>
+        <v>10714</v>
       </c>
       <c r="G59">
         <v>20211009</v>
@@ -2504,61 +2469,56 @@
         <v>82</v>
       </c>
       <c r="I59">
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="J59">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
-        <v>110</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="10">
-        <v>27</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10">
-        <v>10980</v>
-      </c>
-      <c r="G60" s="10">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60">
+        <v>10714</v>
+      </c>
+      <c r="G60">
         <v>20211009</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I60" s="10">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="J60" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
+      <c r="H60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>1.95</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61">
-        <v>66.5</v>
+        <v>77</v>
       </c>
       <c r="F61">
-        <v>10981</v>
+        <v>10716</v>
       </c>
       <c r="G61">
         <v>20211009</v>
@@ -2567,409 +2527,405 @@
         <v>82</v>
       </c>
       <c r="I61">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J61">
-        <v>4.7</v>
+        <v>3.35</v>
+      </c>
+      <c r="K61">
+        <v>4.55</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62">
-        <v>45.2</v>
+        <v>77</v>
       </c>
       <c r="F62">
-        <v>10982</v>
+        <v>10716</v>
       </c>
       <c r="G62">
         <v>20211009</v>
       </c>
       <c r="H62" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J62">
+        <v>2.4</v>
+      </c>
+      <c r="K62">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <v>10718</v>
+      </c>
+      <c r="G63">
+        <v>20211009</v>
+      </c>
+      <c r="H63" t="s">
         <v>82</v>
       </c>
-      <c r="I62">
-        <v>2.6</v>
-      </c>
-      <c r="J62">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="10">
-        <v>72</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="10">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10">
-        <v>10983</v>
-      </c>
-      <c r="G63" s="10">
+      <c r="I63">
+        <v>2.5</v>
+      </c>
+      <c r="J63">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64">
+        <v>10718</v>
+      </c>
+      <c r="G64">
         <v>20211009</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64">
+        <v>1.9</v>
+      </c>
+      <c r="J64">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65">
+        <v>10719</v>
+      </c>
+      <c r="G65">
+        <v>20211009</v>
+      </c>
+      <c r="H65" t="s">
         <v>82</v>
       </c>
-      <c r="I63" s="10">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J63" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
-        <v>73</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="10">
-        <v>84.3</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10">
-        <v>10984</v>
-      </c>
-      <c r="G64" s="10">
-        <v>20211009</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I64" s="10">
-        <v>3</v>
-      </c>
-      <c r="J64" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="10">
-        <v>70</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="10">
-        <v>17</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10">
-        <v>10985</v>
-      </c>
-      <c r="G65" s="10">
-        <v>20211009</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="J65" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K65" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
+      <c r="I65">
+        <v>2.4</v>
+      </c>
+      <c r="J65">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="10">
-        <v>30.1</v>
+        <v>77</v>
       </c>
       <c r="F66">
-        <v>10986</v>
+        <v>10719</v>
       </c>
       <c r="G66">
         <v>20211009</v>
       </c>
       <c r="H66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66">
+        <v>1.45</v>
+      </c>
+      <c r="J66">
+        <v>1.3</v>
+      </c>
+      <c r="K66">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>142</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10">
+        <v>10989</v>
+      </c>
+      <c r="G67" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I66">
-        <v>5.65</v>
-      </c>
-      <c r="J66">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>145</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="I67" s="10">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="J67" s="10">
+        <v>3.55</v>
+      </c>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>49</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67">
-        <v>10987</v>
-      </c>
-      <c r="G67">
+      <c r="C68" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10">
+        <v>10989</v>
+      </c>
+      <c r="G68" s="10">
         <v>20211009</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H68" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="J68" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="K68" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="L68" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69">
+        <v>10992</v>
+      </c>
+      <c r="G69">
+        <v>20211009</v>
+      </c>
+      <c r="H69" t="s">
         <v>82</v>
       </c>
-      <c r="I67">
-        <v>3.66</v>
-      </c>
-      <c r="J67">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>139</v>
-      </c>
-      <c r="B68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F68">
-        <v>10988</v>
-      </c>
-      <c r="G68">
-        <v>20211009</v>
-      </c>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-      <c r="I68">
-        <v>3.75</v>
-      </c>
-      <c r="J68">
-        <v>3.6</v>
-      </c>
-      <c r="K68">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
-        <v>142</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10">
-        <v>10989</v>
-      </c>
-      <c r="G69" s="10">
-        <v>20211009</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" s="10">
-        <v>3.4249999999999998</v>
-      </c>
-      <c r="J69" s="10">
-        <v>3.55</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
+      <c r="I69">
+        <v>2.95</v>
+      </c>
+      <c r="J69">
+        <v>3.15</v>
+      </c>
+      <c r="K69">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F70">
-        <v>10990</v>
+        <v>10992</v>
       </c>
       <c r="G70">
         <v>20211009</v>
       </c>
       <c r="H70" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I70">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J70">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K70">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>83</v>
+      </c>
+      <c r="D71">
+        <v>72.5</v>
       </c>
       <c r="F71">
-        <v>10991</v>
-      </c>
-      <c r="G71">
-        <v>20211009</v>
+        <v>10965</v>
       </c>
       <c r="H71" t="s">
         <v>82</v>
       </c>
       <c r="I71">
-        <v>2.95</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J71">
-        <v>3.55</v>
-      </c>
-      <c r="K71">
-        <v>3.25</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="D72">
+        <v>72.5</v>
       </c>
       <c r="F72">
-        <v>10992</v>
+        <v>10965</v>
       </c>
       <c r="G72">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H72" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I72">
-        <v>2.95</v>
+        <v>1.2</v>
       </c>
       <c r="J72">
-        <v>3.15</v>
-      </c>
-      <c r="K72">
-        <v>3.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="D73">
+        <v>31.3</v>
       </c>
       <c r="F73">
-        <v>10993</v>
+        <v>10972</v>
       </c>
       <c r="G73">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H73" t="s">
         <v>82</v>
       </c>
       <c r="I73">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="J73">
-        <v>4.55</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <v>31.3</v>
       </c>
       <c r="F74">
-        <v>10995</v>
+        <v>10972</v>
       </c>
       <c r="G74">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I74">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="J74">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="D75">
+        <v>63.2</v>
       </c>
       <c r="F75">
-        <v>10996</v>
+        <v>10978</v>
       </c>
       <c r="G75">
         <v>20211009</v>
@@ -2978,152 +2934,149 @@
         <v>82</v>
       </c>
       <c r="I75">
-        <v>3.35</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J75">
-        <v>3.55</v>
-      </c>
-      <c r="K75">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D76">
+        <v>63.2</v>
+      </c>
+      <c r="F76">
+        <v>10978</v>
       </c>
       <c r="G76">
         <v>20211010</v>
       </c>
       <c r="H76" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I76">
-        <v>3.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J76">
-        <v>1.85</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K76">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L76">
-        <v>2.9</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="D77">
+        <v>23.7</v>
+      </c>
+      <c r="F77">
+        <v>10979</v>
       </c>
       <c r="G77">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H77" t="s">
         <v>82</v>
       </c>
       <c r="I77">
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J77">
-        <v>1.45</v>
-      </c>
-      <c r="K77">
         <v>2.4</v>
       </c>
-      <c r="L77">
-        <v>2.4500000000000002</v>
-      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>155</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8" t="s">
+      <c r="A78">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" s="8">
+      <c r="D78">
+        <v>23.7</v>
+      </c>
+      <c r="F78">
+        <v>10979</v>
+      </c>
+      <c r="G78">
         <v>20211010</v>
       </c>
-      <c r="H78" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I78" s="8">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J78" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8" t="s">
-        <v>93</v>
+      <c r="H78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78">
+        <v>0.83</v>
+      </c>
+      <c r="J78">
+        <v>0.69</v>
+      </c>
+      <c r="K78">
+        <v>0.72</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D79">
-        <v>57.6</v>
+        <v>45.2</v>
       </c>
       <c r="F79">
-        <v>10704</v>
+        <v>10982</v>
       </c>
       <c r="G79">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="H79" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I79">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="J79">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <v>45.2</v>
       </c>
       <c r="F80">
-        <v>10713</v>
+        <v>10982</v>
       </c>
       <c r="G80">
         <v>20211009</v>
@@ -3132,197 +3085,211 @@
         <v>40</v>
       </c>
       <c r="I80">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J80">
-        <v>1.4</v>
-      </c>
-      <c r="K80">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>47</v>
-      </c>
-      <c r="B81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81">
-        <v>10714</v>
-      </c>
-      <c r="G81">
+      <c r="A81" s="10">
+        <v>72</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="10">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10">
+        <v>10983</v>
+      </c>
+      <c r="G81" s="10">
         <v>20211009</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I81" s="10">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J81" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>28</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="10">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10">
+        <v>10983</v>
+      </c>
+      <c r="G82" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="H82" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>55</v>
-      </c>
-      <c r="B82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82">
-        <v>10715</v>
-      </c>
-      <c r="G82">
-        <v>20211009</v>
-      </c>
-      <c r="H82" t="s">
-        <v>40</v>
-      </c>
-      <c r="I82">
-        <v>3.1</v>
-      </c>
-      <c r="J82">
-        <v>3.1</v>
-      </c>
+      <c r="I82" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="J82" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>44</v>
-      </c>
-      <c r="B83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83">
-        <v>10716</v>
-      </c>
-      <c r="G83">
-        <v>20211009</v>
-      </c>
-      <c r="H83" t="s">
-        <v>40</v>
-      </c>
-      <c r="I83">
+      <c r="A83" s="8">
+        <v>155</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="8">
+        <v>20211010</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I83" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J83" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J83">
-        <v>2.4</v>
-      </c>
-      <c r="K83">
-        <v>2.4</v>
-      </c>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
+      <c r="N83" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="D84">
+        <v>42.4</v>
       </c>
       <c r="F84">
-        <v>10717</v>
+        <v>10722</v>
       </c>
       <c r="G84">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H84" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I84">
-        <v>1.7</v>
+        <v>3.65</v>
       </c>
       <c r="J84">
-        <v>1.55</v>
-      </c>
-      <c r="K84">
-        <v>1.6</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="D85">
+        <v>42.4</v>
       </c>
       <c r="F85">
-        <v>10718</v>
+        <v>10722</v>
       </c>
       <c r="G85">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="H85" t="s">
         <v>40</v>
       </c>
       <c r="I85">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="J85">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="D86">
+        <v>89.8</v>
       </c>
       <c r="F86">
-        <v>10719</v>
+        <v>10800</v>
       </c>
       <c r="G86">
         <v>20211009</v>
       </c>
       <c r="H86" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I86">
-        <v>1.45</v>
+        <v>3.35</v>
       </c>
       <c r="J86">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="K86">
-        <v>1.3</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="D87">
+        <v>89.8</v>
       </c>
       <c r="F87">
-        <v>10720</v>
+        <v>10800</v>
       </c>
       <c r="G87">
         <v>20211009</v>
@@ -3331,114 +3298,123 @@
         <v>40</v>
       </c>
       <c r="I87">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J87">
-        <v>1.7</v>
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L87">
+        <v>2.4</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="D88">
+        <v>73.400000000000006</v>
       </c>
       <c r="F88">
-        <v>10721</v>
+        <v>10805</v>
       </c>
       <c r="G88">
         <v>20211009</v>
       </c>
       <c r="H88" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I88">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="J88">
-        <v>2.35</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>1.6</v>
-      </c>
-      <c r="M88">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
         <v>71</v>
       </c>
       <c r="D89">
-        <v>42.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F89">
-        <v>10722</v>
+        <v>10805</v>
       </c>
       <c r="G89">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="H89" t="s">
         <v>40</v>
       </c>
       <c r="I89">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="J89">
-        <v>3.1</v>
+        <v>2.15</v>
+      </c>
+      <c r="K89">
+        <v>1.95</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="D90">
+        <v>66.8</v>
       </c>
       <c r="F90">
-        <v>10723</v>
-      </c>
-      <c r="G90">
-        <v>20211010</v>
+        <v>10959</v>
       </c>
       <c r="H90" t="s">
-        <v>40</v>
-      </c>
-      <c r="I90" t="s">
-        <v>45</v>
-      </c>
-      <c r="J90" t="s">
-        <v>46</v>
+        <v>82</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>1.45</v>
+      </c>
+      <c r="K90">
+        <v>1.9</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
         <v>3</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="D91">
+        <v>66.8</v>
       </c>
       <c r="F91">
-        <v>10724</v>
+        <v>10959</v>
       </c>
       <c r="G91">
         <v>20211010</v>
@@ -3447,50 +3423,53 @@
         <v>40</v>
       </c>
       <c r="I91">
-        <v>2.95</v>
+        <v>0.6</v>
       </c>
       <c r="J91">
-        <v>2.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="D92">
+        <v>42.9</v>
       </c>
       <c r="F92">
-        <v>10725</v>
-      </c>
-      <c r="G92">
-        <v>20211010</v>
+        <v>10960</v>
       </c>
       <c r="H92" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I92">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="J92">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="D93">
+        <v>42.9</v>
       </c>
       <c r="F93">
-        <v>10726</v>
+        <v>10960</v>
       </c>
       <c r="G93">
         <v>20211010</v>
@@ -3499,424 +3478,454 @@
         <v>40</v>
       </c>
       <c r="I93">
-        <v>3.65</v>
+        <v>0.6</v>
       </c>
       <c r="J93">
-        <v>3.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="D94">
+        <v>79.900000000000006</v>
       </c>
       <c r="F94">
-        <v>10727</v>
+        <v>10969</v>
       </c>
       <c r="G94">
         <v>20211010</v>
       </c>
       <c r="H94" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I94">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="J94">
-        <v>3.4</v>
+        <v>3.75</v>
+      </c>
+      <c r="K94">
+        <v>3.25</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="D95">
+        <v>79.900000000000006</v>
       </c>
       <c r="F95">
-        <v>10728</v>
+        <v>10969</v>
       </c>
       <c r="G95">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="H95" t="s">
         <v>40</v>
       </c>
       <c r="I95">
-        <v>4.5</v>
-      </c>
-      <c r="J95">
-        <v>3.95</v>
+        <v>2.4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>75</v>
+      </c>
+      <c r="D96">
+        <v>50.9</v>
       </c>
       <c r="F96">
-        <v>10729</v>
+        <v>10801</v>
       </c>
       <c r="G96">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H96" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I96">
-        <v>1.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J96">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>75</v>
+      </c>
+      <c r="D97">
+        <v>50.9</v>
       </c>
       <c r="F97">
-        <v>10730</v>
+        <v>10801</v>
       </c>
       <c r="G97">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H97" t="s">
         <v>40</v>
       </c>
       <c r="I97">
+        <v>2.6</v>
+      </c>
+      <c r="J97">
         <v>2.4</v>
       </c>
-      <c r="J97">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="D98">
+        <v>58.6</v>
       </c>
       <c r="F98">
-        <v>10731</v>
+        <v>10898</v>
       </c>
       <c r="G98">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H98" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I98">
-        <v>3.4</v>
+        <v>4.55</v>
       </c>
       <c r="J98">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="K98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L98">
-        <v>2</v>
-      </c>
-      <c r="N98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="D99">
+        <v>62.2</v>
       </c>
       <c r="F99">
-        <v>10732</v>
+        <v>10966</v>
       </c>
       <c r="G99">
         <v>20211010</v>
       </c>
       <c r="H99" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I99">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="J99">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="D100">
+        <v>62.2</v>
       </c>
       <c r="F100">
-        <v>10733</v>
+        <v>10966</v>
       </c>
       <c r="G100">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="H100" t="s">
         <v>40</v>
       </c>
       <c r="I100">
-        <v>5.45</v>
+        <v>3.7</v>
       </c>
       <c r="J100">
-        <v>6.55</v>
-      </c>
-      <c r="K100">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="D101">
+        <v>84.3</v>
       </c>
       <c r="F101">
-        <v>10734</v>
+        <v>10967</v>
       </c>
       <c r="G101">
         <v>20211010</v>
       </c>
       <c r="H101" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I101">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="J101">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.85</v>
+      </c>
+      <c r="K101">
+        <v>5.4</v>
+      </c>
+      <c r="L101">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="D102">
+        <v>84.3</v>
       </c>
       <c r="F102">
-        <v>10735</v>
+        <v>10967</v>
       </c>
       <c r="G102">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="H102" t="s">
         <v>40</v>
       </c>
       <c r="I102">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="J102">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K102">
+        <v>3.4</v>
+      </c>
+      <c r="L102">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="D103">
+        <v>72.2</v>
       </c>
       <c r="F103">
-        <v>10736</v>
+        <v>10968</v>
       </c>
       <c r="G103">
         <v>20211010</v>
       </c>
       <c r="H103" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I103">
-        <v>2.5499999999999998</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J103">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D104">
-        <v>89.8</v>
+        <v>72.2</v>
       </c>
       <c r="F104">
-        <v>10800</v>
+        <v>10968</v>
       </c>
       <c r="G104">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="H104" t="s">
         <v>40</v>
       </c>
       <c r="I104">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="J104">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="K104">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L104">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>75</v>
       </c>
       <c r="D105">
-        <v>50.9</v>
+        <v>46.5</v>
       </c>
       <c r="F105">
-        <v>10801</v>
+        <v>10971</v>
       </c>
       <c r="G105">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H105" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I105">
-        <v>2.6</v>
+        <v>5.45</v>
       </c>
       <c r="J105">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D106">
-        <v>83.4</v>
+        <v>46.5</v>
       </c>
       <c r="F106">
-        <v>10803</v>
+        <v>10971</v>
       </c>
       <c r="G106">
-        <v>20211009</v>
+        <v>20201010</v>
       </c>
       <c r="H106" t="s">
         <v>40</v>
       </c>
       <c r="I106">
-        <v>3.7</v>
+        <v>4.45</v>
       </c>
       <c r="J106">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>71</v>
-      </c>
-      <c r="D107">
-        <v>73.400000000000006</v>
+        <v>51</v>
       </c>
       <c r="F107">
-        <v>10805</v>
+        <v>10713</v>
       </c>
       <c r="G107">
         <v>20211009</v>
       </c>
       <c r="H107" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I107">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="J107">
-        <v>2.15</v>
-      </c>
-      <c r="K107">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108">
-        <v>35.9</v>
+        <v>51</v>
       </c>
       <c r="F108">
-        <v>10806</v>
+        <v>10713</v>
       </c>
       <c r="G108">
         <v>20211009</v>
@@ -3925,56 +3934,53 @@
         <v>40</v>
       </c>
       <c r="I108">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="J108">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.4</v>
+      </c>
+      <c r="K108">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>72</v>
-      </c>
-      <c r="D109">
-        <v>33.799999999999997</v>
+        <v>51</v>
       </c>
       <c r="F109">
-        <v>10864</v>
+        <v>10987</v>
       </c>
       <c r="G109">
         <v>20211009</v>
       </c>
       <c r="H109" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I109">
-        <v>4.3</v>
+        <v>3.66</v>
       </c>
       <c r="J109">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>72</v>
-      </c>
-      <c r="D110">
-        <v>94.3</v>
+        <v>51</v>
       </c>
       <c r="F110">
-        <v>10865</v>
+        <v>10987</v>
       </c>
       <c r="G110">
         <v>20211009</v>
@@ -3983,59 +3989,56 @@
         <v>40</v>
       </c>
       <c r="I110">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="J110">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="K110">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
-      </c>
-      <c r="D111">
-        <v>68.7</v>
+        <v>51</v>
       </c>
       <c r="F111">
-        <v>10894</v>
+        <v>10988</v>
       </c>
       <c r="G111">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H111" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J111">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.6</v>
+      </c>
+      <c r="K111">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112">
-        <v>72.5</v>
+        <v>51</v>
       </c>
       <c r="F112">
-        <v>10896</v>
+        <v>10988</v>
       </c>
       <c r="G112">
         <v>20211009</v>
@@ -4044,56 +4047,50 @@
         <v>40</v>
       </c>
       <c r="I112">
-        <v>3.65</v>
+        <v>1.9</v>
       </c>
       <c r="J112">
-        <v>3.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113">
-        <v>58.6</v>
+        <v>51</v>
       </c>
       <c r="F113">
-        <v>10898</v>
+        <v>10990</v>
       </c>
       <c r="G113">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H113" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I113">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="J113">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114">
-        <v>80.2</v>
+        <v>51</v>
       </c>
       <c r="F114">
-        <v>10899</v>
+        <v>10990</v>
       </c>
       <c r="G114">
         <v>20211009</v>
@@ -4102,103 +4099,108 @@
         <v>40</v>
       </c>
       <c r="I114">
-        <v>3.55</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J114">
-        <v>3.7</v>
+        <v>1.2</v>
+      </c>
+      <c r="K114">
+        <v>1.2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D115">
-        <v>8.6</v>
+        <v>51</v>
       </c>
       <c r="F115">
-        <v>10956</v>
+        <v>10991</v>
       </c>
       <c r="G115">
         <v>20211009</v>
       </c>
       <c r="H115" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I115">
-        <v>1.1000000000000001</v>
+        <v>2.95</v>
       </c>
       <c r="J115">
-        <v>1.05</v>
+        <v>3.55</v>
+      </c>
+      <c r="K115">
+        <v>3.25</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
-      </c>
-      <c r="D116">
-        <v>66.8</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D116"/>
       <c r="E116"/>
       <c r="F116">
-        <v>10959</v>
+        <v>10991</v>
       </c>
       <c r="G116">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H116" t="s">
         <v>40</v>
       </c>
       <c r="I116">
-        <v>0.6</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J116">
-        <v>0.7</v>
-      </c>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
+        <v>1.5</v>
+      </c>
+      <c r="K116">
+        <v>1.5</v>
+      </c>
+      <c r="L116">
+        <v>1.25</v>
+      </c>
+      <c r="M116">
+        <v>1.45</v>
+      </c>
       <c r="N116"/>
     </row>
     <row r="117" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117">
-        <v>42.9</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D117"/>
       <c r="E117"/>
       <c r="F117">
-        <v>10960</v>
+        <v>10995</v>
       </c>
       <c r="G117">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H117" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I117">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="J117">
-        <v>0.45</v>
+        <v>2.5</v>
       </c>
       <c r="K117"/>
       <c r="L117"/>
@@ -4207,276 +4209,261 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
-      </c>
-      <c r="D118">
-        <v>46.5</v>
+        <v>51</v>
       </c>
       <c r="F118">
-        <v>10961</v>
+        <v>10995</v>
       </c>
       <c r="G118">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H118" t="s">
         <v>40</v>
       </c>
       <c r="I118">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J118">
-        <v>1.7</v>
-      </c>
-      <c r="N118" t="s">
-        <v>95</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D119">
-        <v>35.9</v>
+        <v>57.6</v>
       </c>
       <c r="E119"/>
       <c r="F119">
-        <v>10962</v>
+        <v>10704</v>
       </c>
       <c r="G119">
         <v>20211010</v>
       </c>
       <c r="H119" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I119">
-        <v>1.7</v>
+        <v>4.55</v>
       </c>
       <c r="J119">
-        <v>1.8</v>
-      </c>
-      <c r="K119"/>
+        <v>4.95</v>
+      </c>
+      <c r="K119">
+        <v>4.45</v>
+      </c>
       <c r="L119"/>
       <c r="M119"/>
-      <c r="N119" t="s">
-        <v>96</v>
-      </c>
+      <c r="N119"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D120">
-        <v>53.4</v>
+        <v>57.6</v>
       </c>
       <c r="F120">
-        <v>10963</v>
+        <v>10704</v>
       </c>
       <c r="G120">
-        <v>20211010</v>
+        <v>20201010</v>
       </c>
       <c r="H120" t="s">
         <v>40</v>
       </c>
       <c r="I120">
-        <v>1.8</v>
+        <v>2.95</v>
       </c>
       <c r="J120">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D121">
-        <v>52.2</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F121">
-        <v>10964</v>
+        <v>10864</v>
       </c>
       <c r="G121">
         <v>20211009</v>
       </c>
       <c r="H121" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I121">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="J121">
-        <v>1</v>
-      </c>
-      <c r="K121">
-        <v>1.8</v>
-      </c>
-      <c r="L121">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D122">
-        <v>72.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F122">
-        <v>10965</v>
+        <v>10864</v>
       </c>
       <c r="G122">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H122" t="s">
         <v>40</v>
       </c>
       <c r="I122">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="J122">
-        <v>1.2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D123">
-        <v>62.2</v>
+        <v>94.3</v>
       </c>
       <c r="F123">
-        <v>10966</v>
+        <v>10865</v>
       </c>
       <c r="G123">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="H123" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I123">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J123">
-        <v>3.7</v>
+        <v>2.8</v>
+      </c>
+      <c r="K123">
+        <v>3.35</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D124">
-        <v>84.3</v>
+        <v>94.3</v>
       </c>
       <c r="F124">
-        <v>10967</v>
+        <v>10865</v>
       </c>
       <c r="G124">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="H124" t="s">
         <v>40</v>
       </c>
       <c r="I124">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="J124">
-        <v>2.2999999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="K124">
-        <v>3.4</v>
-      </c>
-      <c r="L124">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D125">
-        <v>72.2</v>
+        <v>37.5</v>
       </c>
       <c r="F125">
-        <v>10968</v>
+        <v>10970</v>
       </c>
       <c r="G125">
-        <v>20201010</v>
+        <v>20211010</v>
       </c>
       <c r="H125" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I125">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="J125">
-        <v>2.85</v>
-      </c>
-      <c r="K125">
-        <v>2.5499999999999998</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D126">
-        <v>79.900000000000006</v>
+        <v>37.5</v>
       </c>
       <c r="F126">
-        <v>10969</v>
+        <v>10970</v>
       </c>
       <c r="G126">
         <v>20201010</v>
@@ -4485,152 +4472,151 @@
         <v>40</v>
       </c>
       <c r="I126">
-        <v>2.4</v>
-      </c>
-      <c r="J126" t="s">
-        <v>74</v>
-      </c>
-      <c r="K126">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
+      </c>
+      <c r="J126">
+        <v>3.9</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>68</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="A127" s="10">
+        <v>110</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D127">
-        <v>37.5</v>
-      </c>
-      <c r="F127">
-        <v>10970</v>
-      </c>
-      <c r="G127">
-        <v>20201010</v>
-      </c>
-      <c r="H127" t="s">
-        <v>40</v>
-      </c>
-      <c r="I127">
-        <v>3.6</v>
-      </c>
-      <c r="J127">
-        <v>3.9</v>
-      </c>
+      <c r="D127" s="10">
+        <v>27</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10">
+        <v>10980</v>
+      </c>
+      <c r="G127" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127" s="10">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J127" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128">
-        <v>46.5</v>
+        <v>72</v>
+      </c>
+      <c r="D128" s="10">
+        <v>27</v>
       </c>
       <c r="F128">
-        <v>10971</v>
+        <v>10980</v>
       </c>
       <c r="G128">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="H128" t="s">
         <v>40</v>
       </c>
       <c r="I128">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="J128">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K128">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D129">
-        <v>31.3</v>
+        <v>66.5</v>
       </c>
       <c r="F129">
-        <v>10972</v>
+        <v>10981</v>
       </c>
       <c r="G129">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H129" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I129">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="J129">
-        <v>1.62</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D130">
-        <v>68.5</v>
+        <v>66.5</v>
       </c>
       <c r="F130">
-        <v>10973</v>
+        <v>10981</v>
       </c>
       <c r="G130">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H130" t="s">
         <v>40</v>
       </c>
       <c r="I130">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="J130">
-        <v>2.02</v>
-      </c>
-      <c r="K130">
-        <v>1.8</v>
-      </c>
-      <c r="L130">
-        <v>1.9</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D131">
-        <v>38</v>
+        <v>66.5</v>
       </c>
       <c r="F131">
-        <v>10974</v>
+        <v>10981</v>
       </c>
       <c r="G131">
         <v>20211009</v>
@@ -4639,248 +4625,245 @@
         <v>40</v>
       </c>
       <c r="I131">
-        <v>0.7</v>
+        <v>3.95</v>
       </c>
       <c r="J131">
-        <v>0.55000000000000004</v>
+        <v>3.85</v>
       </c>
       <c r="K131">
-        <v>0.7</v>
+        <v>3.65</v>
+      </c>
+      <c r="L131">
+        <v>3.8</v>
+      </c>
+      <c r="N131" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D132">
-        <v>58.1</v>
+        <v>83.4</v>
       </c>
       <c r="F132">
-        <v>10975</v>
+        <v>10803</v>
       </c>
       <c r="G132">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H132" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I132">
-        <v>1.65</v>
+        <v>4.7</v>
       </c>
       <c r="J132">
-        <v>1.62</v>
+        <v>4.3</v>
+      </c>
+      <c r="K132">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D133">
-        <v>53.9</v>
+        <v>83.4</v>
       </c>
       <c r="F133">
-        <v>10976</v>
+        <v>10803</v>
       </c>
       <c r="G133">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H133" t="s">
         <v>40</v>
       </c>
       <c r="I133">
-        <v>2.0499999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="J133">
-        <v>2.0499999999999998</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D134">
-        <v>63</v>
+        <v>35.9</v>
       </c>
       <c r="F134">
-        <v>10977</v>
+        <v>10806</v>
       </c>
       <c r="G134">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H134" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I134">
-        <v>0.64</v>
+        <v>4.45</v>
       </c>
       <c r="J134">
-        <v>0.76</v>
-      </c>
-      <c r="K134">
-        <v>0.6</v>
-      </c>
-      <c r="L134">
-        <v>0.72</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D135">
-        <v>63.2</v>
+        <v>35.9</v>
       </c>
       <c r="F135">
-        <v>10978</v>
+        <v>10806</v>
       </c>
       <c r="G135">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H135" t="s">
         <v>40</v>
       </c>
       <c r="I135">
-        <v>1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="J135">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K135">
-        <v>1.1499999999999999</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D136">
-        <v>23.7</v>
+        <v>68.7</v>
       </c>
       <c r="F136">
-        <v>10979</v>
+        <v>10894</v>
       </c>
       <c r="G136">
-        <v>20211010</v>
+        <v>20211009</v>
       </c>
       <c r="H136" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I136">
-        <v>0.83</v>
+        <v>3.3</v>
       </c>
       <c r="J136">
-        <v>0.69</v>
-      </c>
-      <c r="K136">
-        <v>0.72</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>72</v>
-      </c>
-      <c r="D137" s="10">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="D137">
+        <v>68.7</v>
       </c>
       <c r="F137">
-        <v>10980</v>
+        <v>10894</v>
       </c>
       <c r="G137">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H137" t="s">
         <v>40</v>
       </c>
       <c r="I137">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J137">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K137">
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D138">
-        <v>66.5</v>
+        <v>72.5</v>
       </c>
       <c r="F138">
-        <v>10981</v>
+        <v>10896</v>
       </c>
       <c r="G138">
         <v>20211009</v>
       </c>
       <c r="H138" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I138">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="J138">
-        <v>4.0999999999999996</v>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K138">
+        <v>4.5</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D139">
-        <v>66.5</v>
+        <v>72.5</v>
       </c>
       <c r="F139">
-        <v>10981</v>
+        <v>10896</v>
       </c>
       <c r="G139">
         <v>20211009</v>
@@ -4889,229 +4872,213 @@
         <v>40</v>
       </c>
       <c r="I139">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J139">
-        <v>3.85</v>
-      </c>
-      <c r="K139">
-        <v>3.65</v>
-      </c>
-      <c r="L139">
-        <v>3.8</v>
-      </c>
-      <c r="N139" t="s">
-        <v>84</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D140">
-        <v>45.2</v>
+        <v>58.6</v>
       </c>
       <c r="F140">
-        <v>10982</v>
+        <v>10898</v>
       </c>
       <c r="G140">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H140" t="s">
         <v>40</v>
       </c>
       <c r="I140">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J140">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="10">
-        <v>28</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" s="10">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10">
-        <v>10983</v>
-      </c>
-      <c r="G141" s="10">
+      <c r="A141">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>91</v>
+      </c>
+      <c r="D141">
+        <v>80.2</v>
+      </c>
+      <c r="F141">
+        <v>10899</v>
+      </c>
+      <c r="G141">
         <v>20211009</v>
       </c>
-      <c r="H141" s="10" t="s">
+      <c r="H141" t="s">
+        <v>82</v>
+      </c>
+      <c r="I141">
+        <v>4.45</v>
+      </c>
+      <c r="J141">
+        <v>5</v>
+      </c>
+      <c r="K141">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>82</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>91</v>
+      </c>
+      <c r="D142">
+        <v>80.2</v>
+      </c>
+      <c r="F142">
+        <v>10899</v>
+      </c>
+      <c r="G142">
+        <v>20211009</v>
+      </c>
+      <c r="H142" t="s">
         <v>40</v>
       </c>
-      <c r="I141" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="J141" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="10">
-        <v>26</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D142" s="10">
-        <v>84.3</v>
-      </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10">
-        <v>10984</v>
-      </c>
-      <c r="G142" s="10">
+      <c r="I142">
+        <v>3.55</v>
+      </c>
+      <c r="J142">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>120</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>91</v>
+      </c>
+      <c r="D143">
+        <v>68.5</v>
+      </c>
+      <c r="F143">
+        <v>10973</v>
+      </c>
+      <c r="G143">
         <v>20211009</v>
       </c>
-      <c r="H142" s="10" t="s">
+      <c r="H143" t="s">
+        <v>82</v>
+      </c>
+      <c r="I143">
+        <v>2.65</v>
+      </c>
+      <c r="J143">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>91</v>
+      </c>
+      <c r="D144">
+        <v>68.5</v>
+      </c>
+      <c r="F144">
+        <v>10973</v>
+      </c>
+      <c r="G144">
+        <v>20211010</v>
+      </c>
+      <c r="H144" t="s">
         <v>40</v>
       </c>
-      <c r="I142" s="10">
+      <c r="I144">
+        <v>1.7</v>
+      </c>
+      <c r="J144">
+        <v>2.02</v>
+      </c>
+      <c r="K144">
+        <v>1.8</v>
+      </c>
+      <c r="L144">
         <v>1.9</v>
       </c>
-      <c r="J142" s="10">
-        <v>1.95</v>
-      </c>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="10">
-        <v>32</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="10">
-        <v>17</v>
-      </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10">
-        <v>10985</v>
-      </c>
-      <c r="G143" s="10">
-        <v>20211009</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I143" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J143" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="10">
-        <v>59</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="10">
-        <v>30.1</v>
-      </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10">
-        <v>10986</v>
-      </c>
-      <c r="G144" s="10">
-        <v>20211009</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I144" s="10">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="J144" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K144" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="D145">
+        <v>8.6</v>
       </c>
       <c r="F145">
-        <v>10987</v>
+        <v>10956</v>
       </c>
       <c r="G145">
         <v>20211009</v>
       </c>
       <c r="H145" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I145">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="J145">
-        <v>1.85</v>
+        <v>2.85</v>
       </c>
       <c r="K145">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B146" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="D146">
+        <v>8.6</v>
       </c>
       <c r="F146">
-        <v>10988</v>
+        <v>10956</v>
       </c>
       <c r="G146">
         <v>20211009</v>
@@ -5120,196 +5087,185 @@
         <v>40</v>
       </c>
       <c r="I146">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J146">
-        <v>2</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A147" s="10">
-        <v>49</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10">
-        <v>10989</v>
-      </c>
-      <c r="G147" s="10">
-        <v>20211009</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I147" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="J147" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="K147" s="10">
-        <v>2.25</v>
-      </c>
-      <c r="L147" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
+      <c r="A147">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>78</v>
+      </c>
+      <c r="D147">
+        <v>46.5</v>
+      </c>
+      <c r="F147">
+        <v>10961</v>
+      </c>
+      <c r="H147" t="s">
+        <v>82</v>
+      </c>
+      <c r="I147">
+        <v>2.35</v>
+      </c>
+      <c r="J147">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B148" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="D148">
+        <v>46.5</v>
       </c>
       <c r="F148">
-        <v>10990</v>
+        <v>10961</v>
       </c>
       <c r="G148">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H148" t="s">
         <v>40</v>
       </c>
       <c r="I148">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="J148">
-        <v>1.2</v>
-      </c>
-      <c r="K148">
-        <v>1.2</v>
+        <v>1.7</v>
+      </c>
+      <c r="N148" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="D149">
+        <v>35.9</v>
       </c>
       <c r="F149">
-        <v>10991</v>
-      </c>
-      <c r="G149">
-        <v>20211009</v>
+        <v>10962</v>
       </c>
       <c r="H149" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I149">
-        <v>1.1499999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="J149">
-        <v>1.5</v>
-      </c>
-      <c r="K149">
-        <v>1.5</v>
-      </c>
-      <c r="L149">
-        <v>1.25</v>
-      </c>
-      <c r="M149">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D150">
+        <v>35.9</v>
       </c>
       <c r="F150">
-        <v>10992</v>
+        <v>10962</v>
       </c>
       <c r="G150">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H150" t="s">
         <v>40</v>
       </c>
       <c r="I150">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="J150">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K150">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
+      </c>
+      <c r="N150" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="D151">
+        <v>53.4</v>
       </c>
       <c r="F151">
-        <v>10993</v>
-      </c>
-      <c r="G151">
-        <v>20211009</v>
+        <v>10963</v>
       </c>
       <c r="H151" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I151">
-        <v>3.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J151">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K151">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152"/>
+        <v>78</v>
+      </c>
+      <c r="D152">
+        <v>53.4</v>
+      </c>
       <c r="E152"/>
       <c r="F152">
-        <v>10995</v>
+        <v>10963</v>
       </c>
       <c r="G152">
-        <v>20211009</v>
+        <v>20211010</v>
       </c>
       <c r="H152" t="s">
         <v>40</v>
       </c>
       <c r="I152">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J152">
-        <v>1.1499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="K152"/>
       <c r="L152"/>
@@ -5318,130 +5274,137 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B153" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="D153">
+        <v>52.2</v>
       </c>
       <c r="F153">
-        <v>10996</v>
-      </c>
-      <c r="G153">
-        <v>20211009</v>
+        <v>10964</v>
       </c>
       <c r="H153" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I153">
-        <v>2.65</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J153">
-        <v>2.5</v>
-      </c>
-      <c r="K153">
-        <v>2.2999999999999998</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B154" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>44</v>
-      </c>
-      <c r="E154">
-        <v>120</v>
-      </c>
-      <c r="F154" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="D154">
+        <v>52.2</v>
+      </c>
+      <c r="F154">
+        <v>10964</v>
       </c>
       <c r="G154">
-        <v>20201010</v>
+        <v>20211009</v>
       </c>
       <c r="H154" t="s">
         <v>40</v>
       </c>
       <c r="I154">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="J154">
-        <v>1.4</v>
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1.8</v>
+      </c>
+      <c r="L154">
+        <v>1.7</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>64</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s">
-        <v>44</v>
-      </c>
-      <c r="E155">
-        <v>200</v>
-      </c>
-      <c r="F155" t="s">
-        <v>56</v>
-      </c>
-      <c r="G155">
-        <v>20201010</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="A155" s="10">
+        <v>73</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D155" s="10">
+        <v>84.3</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10">
+        <v>10984</v>
+      </c>
+      <c r="G155" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I155" s="10">
+        <v>3</v>
+      </c>
+      <c r="J155" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="10">
+        <v>26</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D156" s="10">
+        <v>84.3</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10">
+        <v>10984</v>
+      </c>
+      <c r="G156" s="10">
+        <v>20211009</v>
+      </c>
+      <c r="H156" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I155" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J155">
-        <v>1.8</v>
-      </c>
-      <c r="K155">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
-        <v>12</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" s="8">
-        <v>20211010</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I156" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="J156" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
+      <c r="I156" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="J156" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N157">
-    <sortCondition ref="H2:H157"/>
-    <sortCondition ref="F2:F157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N161">
+    <sortCondition ref="C2:C161"/>
+    <sortCondition ref="F2:F161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5451,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17ACA9F-3409-0E43-A145-3AF267DD9BC7}">
   <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:T30"/>
     </sheetView>
